--- a/aiurt-module-system/src/main/resources/templates/emergencyMaterialsError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyMaterialsError.xlsx
@@ -7,27 +7,28 @@
     <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
-    <sheet name="应急物资导入模板" sheetId="1" r:id="rId1"/>
+    <sheet name="应急物资台账导入模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>应急物资导入模板</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>应急物资台账导入模板
+填写须知：
+1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
+2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
+字段说明：
+是否为防汛物资：是/否；
+数量：&gt;0;
+存放位置：线路/站点/位置 或着 线路/站点；
+联系电话：11位电话号码；</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>应急物资导入模板</t>
+      <t>应急物资台账导入模板</t>
     </r>
     <r>
       <rPr>
@@ -75,6 +76,9 @@
     <t>联系电话</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>错误原因</t>
   </si>
   <si>
@@ -103,6 +107,9 @@
   </si>
   <si>
     <t>t.phone</t>
+  </si>
+  <si>
+    <t>t.remark</t>
   </si>
   <si>
     <t>t.wrongReason}}</t>
@@ -783,9 +790,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -798,6 +808,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1150,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1166,105 +1179,113 @@
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="9" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="6"/>
     </row>
-    <row r="2" ht="153" customHeight="1" spans="1:10">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="153" customHeight="1" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="K3" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
